--- a/output/ValueSet-Esp-Tabla-DEIS.xlsx
+++ b/output/ValueSet-Esp-Tabla-DEIS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T12:21:03-03:00</t>
+    <t>2021-09-13T12:43:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-Esp-Tabla-DEIS.xlsx
+++ b/output/ValueSet-Esp-Tabla-DEIS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core//ValueSet/Esp-Tabla-DEIS</t>
+    <t>http://core.hl7chile.cl/ValueSet/Esp-Tabla-DEIS</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T12:43:20-03:00</t>
+    <t>2021-09-14T19:29:07-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-Esp-Tabla-DEIS.xlsx
+++ b/output/ValueSet-Esp-Tabla-DEIS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core//ValueSet/Esp-Tabla-DEIS</t>
+    <t>http://core.hl7chile.cl/ValueSet/Esp-Tabla-DEIS</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T12:43:20-03:00</t>
+    <t>2021-09-15T12:30:30-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-Esp-Tabla-DEIS.xlsx
+++ b/output/ValueSet-Esp-Tabla-DEIS.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from especialidades" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from TablaEspecialidade" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T19:29:07-03:00</t>
+    <t>2021-09-15T14:26:58-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://deis.cl/especialidades</t>
+    <t>https://minsal.cl/TablaEspecialidades</t>
   </si>
 </sst>
 </file>
